--- a/DataTable/FarmerStatTable.xlsx
+++ b/DataTable/FarmerStatTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seh00n/GitHub/ProjectF/DataTable/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A9D83CF-2501-084B-93E6-097D9DC4B13C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{38A154EC-4BE1-CE4A-A643-1E7ACB347E98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3340" yWindow="2620" windowWidth="27900" windowHeight="16940"/>
+    <workbookView xWindow="3340" yWindow="2620" windowWidth="27900" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FarmerStatTable" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19">
     <font>
       <sz val="12"/>
@@ -875,9 +875,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" name="Office 테마">
+<a:theme xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -915,7 +915,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1021,7 +1021,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1163,18 +1163,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1256,7 +1256,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="5">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="D4" s="5">
         <v>1</v>

--- a/DataTable/FarmerStatTable.xlsx
+++ b/DataTable/FarmerStatTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seh00n/GitHub/ProjectF/DataTable/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{38A154EC-4BE1-CE4A-A643-1E7ACB347E98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{D7B1A67C-7EF3-3A4F-A037-772A17A05669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3340" yWindow="2620" windowWidth="27900" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-2840" yWindow="-20120" windowWidth="30420" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FarmerStatTable" sheetId="1" r:id="rId1"/>
@@ -25,39 +25,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="18" uniqueCount="11">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="14" uniqueCount="8">
   <si>
     <t>id</t>
-  </si>
-  <si>
-    <t>moveSpeedBaseValue</t>
-  </si>
-  <si>
-    <t>moveSpeedIncreaseValue</t>
-  </si>
-  <si>
-    <t>healthBaseValue</t>
-  </si>
-  <si>
-    <t>healthIncreaseValue</t>
-  </si>
-  <si>
-    <t>farmingSkillBaseValue</t>
-  </si>
-  <si>
-    <t>farmingSkillIncreaseValue</t>
-  </si>
-  <si>
-    <t>adventureSkillBaseValue</t>
-  </si>
-  <si>
-    <t>adventureSkillIncreaseValue</t>
   </si>
   <si>
     <t>int</t>
   </si>
   <si>
-    <t>float</t>
+    <t>float[]</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>moveSpeedStat</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>healthStat</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>farmingSkillStat</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>adventureSkillStat</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1,1,1,1]</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -412,7 +409,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="11">
     <border>
       <start/>
       <end/>
@@ -528,66 +525,6 @@
       <diagonal/>
     </border>
     <border>
-      <start style="medium">
-        <color indexed="64"/>
-      </start>
-      <end style="thin">
-        <color indexed="64"/>
-      </end>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <start style="thin">
-        <color indexed="64"/>
-      </start>
-      <end style="thin">
-        <color indexed="64"/>
-      </end>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <start style="thin">
-        <color indexed="64"/>
-      </start>
-      <end style="medium">
-        <color indexed="64"/>
-      </end>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <start style="medium">
-        <color indexed="64"/>
-      </start>
-      <end style="thin">
-        <color indexed="64"/>
-      </end>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <start style="thin">
         <color indexed="64"/>
       </start>
@@ -597,61 +534,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <start style="thin">
-        <color indexed="64"/>
-      </start>
-      <end style="medium">
-        <color indexed="64"/>
-      </end>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <start style="medium">
-        <color indexed="64"/>
-      </start>
-      <end style="thin">
-        <color indexed="64"/>
-      </end>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <start style="thin">
-        <color indexed="64"/>
-      </start>
-      <end style="thin">
-        <color indexed="64"/>
-      </end>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <start style="thin">
-        <color indexed="64"/>
-      </start>
-      <end style="medium">
-        <color indexed="64"/>
-      </end>
-      <top/>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -785,36 +668,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="13" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="14" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1171,110 +1033,69 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A2:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="19" thickBot="1"/>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="19" thickBot="1">
-      <c r="A3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="19" thickBot="1">
-      <c r="A4" s="4">
-        <v>0</v>
-      </c>
-      <c r="B4" s="5">
-        <v>1</v>
-      </c>
-      <c r="C4" s="5">
-        <v>1</v>
-      </c>
-      <c r="D4" s="5">
-        <v>1</v>
-      </c>
-      <c r="E4" s="5">
-        <v>1</v>
-      </c>
-      <c r="F4" s="5">
-        <v>1</v>
-      </c>
-      <c r="G4" s="5">
-        <v>1</v>
-      </c>
-      <c r="H4" s="5">
-        <v>1</v>
-      </c>
-      <c r="I4" s="6">
-        <v>1</v>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/DataTable/FarmerStatTable.xlsx
+++ b/DataTable/FarmerStatTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seh00n/GitHub/ProjectF/DataTable/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4fc6ad1120df1f34/문서/GitHub/ProjectF/DataTable/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{D7B1A67C-7EF3-3A4F-A037-772A17A05669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8_{2A1447DD-A03F-4936-87E6-2113DBAB1546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2840" yWindow="-20120" windowWidth="30420" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5040" yWindow="2640" windowWidth="21615" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FarmerStatTable" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1036,18 +1036,18 @@
   <dimension ref="A2:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1064,7 +1064,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1081,7 +1081,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>0</v>
       </c>

--- a/DataTable/FarmerStatTable.xlsx
+++ b/DataTable/FarmerStatTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4fc6ad1120df1f34/문서/GitHub/ProjectF/DataTable/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\ProjectF\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8_{2A1447DD-A03F-4936-87E6-2113DBAB1546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{D3920CA6-9A9C-442A-96D8-1F68B72353A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5040" yWindow="2640" windowWidth="21615" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FarmerStatTable" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="14" uniqueCount="8">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="82" uniqueCount="73">
   <si>
     <t>id</t>
   </si>
@@ -53,8 +53,213 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>[1,1,1,1]</t>
+    <t>[5,3,1,3]</t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>[4,3,1,4]</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>[4,5,1,4]</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>[3,2,3,6]</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>[3,6,3,4]</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>[5,6,3,4]</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>[6,5,3,4]</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>[7,3,3,5]</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>[5,4,2,4]</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2,4,2,5]</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>[4,5,2,2]</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>[7,5,1,5]</t>
+  </si>
+  <si>
+    <t>[5,4,3,8]</t>
+  </si>
+  <si>
+    <t>[7,6,2,6]</t>
+  </si>
+  <si>
+    <t>[8,7,3,6]</t>
+  </si>
+  <si>
+    <t>[6,7,2,4]</t>
+  </si>
+  <si>
+    <t>[6,5,1,6]</t>
+  </si>
+  <si>
+    <t>[5,8,3,6]</t>
+  </si>
+  <si>
+    <t>[7,8,3,6]</t>
+  </si>
+  <si>
+    <t>[4,6,2,7]</t>
+  </si>
+  <si>
+    <t>[6,7,1,6]</t>
+  </si>
+  <si>
+    <t>[9,5,3,7]</t>
+  </si>
+  <si>
+    <t>[12,10,1,10]</t>
+  </si>
+  <si>
+    <t>[10,9,3,13]</t>
+  </si>
+  <si>
+    <t>[12,11,2,11]</t>
+  </si>
+  <si>
+    <t>[13,12,3,11]</t>
+  </si>
+  <si>
+    <t>[11,12,2,9]</t>
+  </si>
+  <si>
+    <t>[11,10,1,11]</t>
+  </si>
+  <si>
+    <t>[10,13,3,11]</t>
+  </si>
+  <si>
+    <t>[12,13,3,11]</t>
+  </si>
+  <si>
+    <t>[9,11,2,12]</t>
+  </si>
+  <si>
+    <t>[11,12,1,11]</t>
+  </si>
+  <si>
+    <t>[14,10,3,12]</t>
+  </si>
+  <si>
+    <t>[22,20,1,20]</t>
+  </si>
+  <si>
+    <t>[20,19,3,23]</t>
+  </si>
+  <si>
+    <t>[22,21,2,21]</t>
+  </si>
+  <si>
+    <t>[23,22,3,21]</t>
+  </si>
+  <si>
+    <t>[21,22,2,19]</t>
+  </si>
+  <si>
+    <t>[21,20,1,21]</t>
+  </si>
+  <si>
+    <t>[20,23,3,21]</t>
+  </si>
+  <si>
+    <t>[22,23,3,21]</t>
+  </si>
+  <si>
+    <t>[19,21,2,22]</t>
+  </si>
+  <si>
+    <t>[21,22,1,21]</t>
+  </si>
+  <si>
+    <t>[24,20,3,22]</t>
+  </si>
+  <si>
+    <t>[40,38,1,38]</t>
+  </si>
+  <si>
+    <t>[38,37,3,41]</t>
+  </si>
+  <si>
+    <t>[40,39,2,39]</t>
+  </si>
+  <si>
+    <t>[41,40,3,39]</t>
+  </si>
+  <si>
+    <t>[39,40,2,37]</t>
+  </si>
+  <si>
+    <t>[39,38,1,39]</t>
+  </si>
+  <si>
+    <t>[38,41,3,39]</t>
+  </si>
+  <si>
+    <t>[40,41,3,39]</t>
+  </si>
+  <si>
+    <t>[37,39,2,40]</t>
+  </si>
+  <si>
+    <t>[39,40,1,39]</t>
+  </si>
+  <si>
+    <t>[42,38,3,40]</t>
+  </si>
+  <si>
+    <t>[60,58,1,58]</t>
+  </si>
+  <si>
+    <t>[58,57,3,61]</t>
+  </si>
+  <si>
+    <t>[60,59,2,59]</t>
+  </si>
+  <si>
+    <t>[61,60,3,59]</t>
+  </si>
+  <si>
+    <t>[59,60,2,57]</t>
+  </si>
+  <si>
+    <t>[59,58,1,59]</t>
+  </si>
+  <si>
+    <t>[58,61,3,59]</t>
+  </si>
+  <si>
+    <t>[60,61,3,59]</t>
+  </si>
+  <si>
+    <t>[57,59,2,60]</t>
+  </si>
+  <si>
+    <t>[59,60,1,59]</t>
+  </si>
+  <si>
+    <t>[62,58,3,60]</t>
   </si>
 </sst>
 </file>
@@ -668,7 +873,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -677,6 +882,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1033,21 +1241,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:E4"/>
+  <dimension ref="A2:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" customWidth="1"/>
+    <col min="3" max="3" width="14.3046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.3046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.3046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1064,7 +1272,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1081,7 +1289,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <v>0</v>
       </c>
@@ -1089,13 +1297,302 @@
         <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" s="3">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" s="3">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7" s="2">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8" s="3">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A9" s="3">
+        <v>5</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A10" s="2">
+        <v>6</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11" s="3">
         <v>7</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>7</v>
+      <c r="B11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A12" s="3">
+        <v>8</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A13" s="2">
+        <v>9</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A14" s="3">
+        <v>10</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A15" s="3">
+        <v>11</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A16" s="2">
+        <v>12</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A17" s="3">
+        <v>13</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A18" s="3">
+        <v>14</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A19" s="2">
+        <v>15</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A20" s="3">
+        <v>16</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A21" s="3">
+        <v>17</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
